--- a/202107_EXP2/citrate_synthase/Raw Data/Plate Layout.xlsx
+++ b/202107_EXP2/citrate_synthase/Raw Data/Plate Layout.xlsx
@@ -1,19 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliviacattau/Documents/GitHub/NOPP-gigas-ploidy-temp/202107_EXP2/citrate_synthase/Raw Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0555415B-C81F-EE4C-84DB-18EADF551D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-32400" yWindow="-1320" windowWidth="28800" windowHeight="17500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="3.21.22 plate 1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="3.21.22 plate 2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="3.22.22 plate 1" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="3.22.22 plate 2" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="3.22.22 plate 3" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="3.22.22 plate 4" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="3.22.22 plate 5" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="3.22.22 plate 6" sheetId="8" r:id="rId11"/>
+    <sheet name="3.21.22 plate 1" sheetId="1" r:id="rId1"/>
+    <sheet name="3.21.22 plate 2" sheetId="2" r:id="rId2"/>
+    <sheet name="3.22.22 plate 1" sheetId="3" r:id="rId3"/>
+    <sheet name="3.22.22 plate 2" sheetId="4" r:id="rId4"/>
+    <sheet name="3.22.22 plate 3" sheetId="5" r:id="rId5"/>
+    <sheet name="3.22.22 plate 4" sheetId="6" r:id="rId6"/>
+    <sheet name="3.22.22 plate 5" sheetId="7" r:id="rId7"/>
+    <sheet name="3.22.22 plate 6" sheetId="8" r:id="rId8"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -632,17 +641,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -651,7 +662,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -679,72 +690,43 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -934,20 +916,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -955,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -993,7 +978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1031,7 +1016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1069,7 +1054,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1092,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1145,7 +1130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1183,7 +1168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1221,7 +1206,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1232,7 +1217,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1270,7 +1255,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1308,7 +1293,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -1346,7 +1331,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -1385,26 +1370,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1480,7 +1468,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1506,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
@@ -1541,7 +1529,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1579,7 +1567,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1617,7 +1605,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -1655,7 +1643,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -1693,7 +1681,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -1731,7 +1719,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -1770,21 +1758,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -1802,7 +1793,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +1831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>110</v>
       </c>
@@ -1878,7 +1869,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1916,7 +1907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>122</v>
       </c>
@@ -1954,7 +1945,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1992,7 +1983,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
@@ -2030,7 +2021,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2068,7 +2059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>130</v>
       </c>
@@ -2106,7 +2097,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -2144,7 +2135,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>135</v>
       </c>
@@ -2182,7 +2173,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -2220,7 +2211,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>139</v>
       </c>
@@ -2258,7 +2249,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2296,7 +2287,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>143</v>
       </c>
@@ -2313,7 +2304,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -2352,21 +2343,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -2374,7 +2366,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2412,24 +2404,24 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="E3" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>121</v>
@@ -2450,7 +2442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2488,7 +2480,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>123</v>
       </c>
@@ -2526,7 +2518,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -2564,7 +2556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>127</v>
       </c>
@@ -2602,7 +2594,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -2640,7 +2632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -2678,7 +2670,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -2716,7 +2708,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>136</v>
       </c>
@@ -2754,7 +2746,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -2792,7 +2784,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -2830,7 +2822,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -2868,7 +2860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>144</v>
       </c>
@@ -2897,7 +2889,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -2936,26 +2928,29 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2993,7 +2988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
@@ -3031,7 +3026,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3069,7 +3064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
@@ -3107,7 +3102,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3145,7 +3140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>156</v>
       </c>
@@ -3183,7 +3178,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3221,7 +3216,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>160</v>
       </c>
@@ -3259,7 +3254,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -3297,7 +3292,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>165</v>
       </c>
@@ -3335,7 +3330,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -3373,7 +3368,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>169</v>
       </c>
@@ -3411,7 +3406,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -3449,7 +3444,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>173</v>
       </c>
@@ -3460,7 +3455,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -3499,21 +3494,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -3521,7 +3517,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -3559,7 +3555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>149</v>
       </c>
@@ -3597,7 +3593,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -3635,7 +3631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>153</v>
       </c>
@@ -3673,7 +3669,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -3711,7 +3707,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>157</v>
       </c>
@@ -3749,7 +3745,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3787,7 +3783,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>161</v>
       </c>
@@ -3825,7 +3821,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
         <v>61</v>
       </c>
@@ -3863,7 +3859,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>166</v>
       </c>
@@ -3901,7 +3897,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -3939,7 +3935,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>170</v>
       </c>
@@ -3977,7 +3973,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -4015,7 +4011,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -4054,21 +4050,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>109</v>
       </c>
@@ -4076,7 +4075,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4114,7 +4113,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>179</v>
       </c>
@@ -4152,7 +4151,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4190,7 +4189,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>183</v>
       </c>
@@ -4228,7 +4227,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>186</v>
       </c>
@@ -4304,7 +4303,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>190</v>
       </c>
@@ -4380,7 +4379,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>61</v>
       </c>
@@ -4418,7 +4417,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>194</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -4485,7 +4484,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -4523,7 +4522,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -4562,21 +4561,22 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>174</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>179</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -4698,7 +4698,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>182</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -4774,7 +4774,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>185</v>
       </c>
@@ -4812,7 +4812,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -4850,7 +4850,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>189</v>
       </c>
@@ -4888,7 +4888,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>61</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>201</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>73</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>85</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>97</v>
       </c>
@@ -5079,6 +5079,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>